--- a/data/pca/factorExposure/factorExposure_2018-11-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.07352673873302358</v>
+        <v>0.04661204037321118</v>
       </c>
       <c r="C2">
-        <v>0.05659756952113611</v>
+        <v>0.00354630839717161</v>
       </c>
       <c r="D2">
-        <v>0.06272958341466843</v>
+        <v>-0.02100369298039562</v>
       </c>
       <c r="E2">
-        <v>-0.02986480349540313</v>
+        <v>-0.01654191907134</v>
       </c>
       <c r="F2">
-        <v>0.139649495887418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03709086679008554</v>
+      </c>
+      <c r="G2">
+        <v>0.1079549231147508</v>
+      </c>
+      <c r="H2">
+        <v>0.07481379340920476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.2008357080236161</v>
+        <v>0.1244752606631765</v>
       </c>
       <c r="C3">
-        <v>-0.01110249241377508</v>
+        <v>-0.04136350733379724</v>
       </c>
       <c r="D3">
-        <v>0.1287321667113133</v>
+        <v>-0.05818980548181488</v>
       </c>
       <c r="E3">
-        <v>-0.09263822477698817</v>
+        <v>-0.009905350076544512</v>
       </c>
       <c r="F3">
-        <v>0.3595066299131027</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.0099085130928191</v>
+      </c>
+      <c r="G3">
+        <v>0.3407453207726626</v>
+      </c>
+      <c r="H3">
+        <v>0.2806371751651606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06809136365990957</v>
+        <v>0.05614399375718687</v>
       </c>
       <c r="C4">
-        <v>0.0288685260605556</v>
+        <v>-0.005012470039500919</v>
       </c>
       <c r="D4">
-        <v>0.04239210562738781</v>
+        <v>-0.02723732788216422</v>
       </c>
       <c r="E4">
-        <v>-0.06178152618168645</v>
+        <v>0.01739813113857673</v>
       </c>
       <c r="F4">
-        <v>0.06067096760122741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.06361276215960332</v>
+      </c>
+      <c r="G4">
+        <v>0.05968040993348232</v>
+      </c>
+      <c r="H4">
+        <v>0.02859700821003116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.00816194564258511</v>
+        <v>0.03250425509989075</v>
       </c>
       <c r="C6">
-        <v>0.004130551745877244</v>
+        <v>-0.001833754372011779</v>
       </c>
       <c r="D6">
-        <v>0.003657073424566693</v>
+        <v>-0.01424136612388967</v>
       </c>
       <c r="E6">
-        <v>0.005229218197179647</v>
+        <v>0.003648806171893294</v>
       </c>
       <c r="F6">
-        <v>-0.0002016512858067126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02866145404787887</v>
+      </c>
+      <c r="G6">
+        <v>0.01078316783262299</v>
+      </c>
+      <c r="H6">
+        <v>-0.03112133811558378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03660893382937032</v>
+        <v>0.02914037872322936</v>
       </c>
       <c r="C7">
-        <v>0.01725914211059635</v>
+        <v>-0.003780045418404142</v>
       </c>
       <c r="D7">
-        <v>0.04214643491499202</v>
+        <v>-0.006568326391213723</v>
       </c>
       <c r="E7">
-        <v>-0.01679924430571774</v>
+        <v>0.03277810066900275</v>
       </c>
       <c r="F7">
-        <v>0.05875675748453932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02625480864262317</v>
+      </c>
+      <c r="G7">
+        <v>0.04700251897551398</v>
+      </c>
+      <c r="H7">
+        <v>0.04538162499704069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03679539988348066</v>
+        <v>0.0117115478812588</v>
       </c>
       <c r="C8">
-        <v>0.001271810804786125</v>
+        <v>-0.005847807936977034</v>
       </c>
       <c r="D8">
-        <v>0.03327913527949935</v>
+        <v>-0.0299746648437482</v>
       </c>
       <c r="E8">
-        <v>-0.05421888725597198</v>
+        <v>0.01206408688000592</v>
       </c>
       <c r="F8">
-        <v>0.08953209035679639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.03245707422189129</v>
+      </c>
+      <c r="G8">
+        <v>0.06996873957028436</v>
+      </c>
+      <c r="H8">
+        <v>0.05484795236771216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.05478458789875082</v>
+        <v>0.04445569891845813</v>
       </c>
       <c r="C9">
-        <v>0.02616500647769979</v>
+        <v>-0.007397915062764132</v>
       </c>
       <c r="D9">
-        <v>0.02518555556283663</v>
+        <v>-0.02027014532983119</v>
       </c>
       <c r="E9">
-        <v>-0.06815833466736339</v>
+        <v>0.0172479723980347</v>
       </c>
       <c r="F9">
-        <v>0.06132978210900539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.04393455834410918</v>
+      </c>
+      <c r="G9">
+        <v>0.07642698677509738</v>
+      </c>
+      <c r="H9">
+        <v>0.02966474140869116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03345487531669253</v>
+        <v>0.05639239626448307</v>
       </c>
       <c r="C10">
-        <v>0.06774677870218861</v>
+        <v>-0.0172673423325855</v>
       </c>
       <c r="D10">
-        <v>-0.1026741519200909</v>
+        <v>0.1483890693975935</v>
       </c>
       <c r="E10">
-        <v>0.1057726511814862</v>
+        <v>-0.02324522614743946</v>
       </c>
       <c r="F10">
-        <v>0.08235938743894494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.08168430118713729</v>
+      </c>
+      <c r="G10">
+        <v>0.04252512556882612</v>
+      </c>
+      <c r="H10">
+        <v>0.02639523039060945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.04627784383573556</v>
+        <v>0.0316285931014342</v>
       </c>
       <c r="C11">
-        <v>0.006210488140552423</v>
+        <v>-0.01589887264936012</v>
       </c>
       <c r="D11">
-        <v>0.02859708091271511</v>
+        <v>-0.02829578978200934</v>
       </c>
       <c r="E11">
-        <v>-0.01708071681706507</v>
+        <v>-0.004509683511416248</v>
       </c>
       <c r="F11">
-        <v>0.03671679235435393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.02411814225539647</v>
+      </c>
+      <c r="G11">
+        <v>0.04572837751382131</v>
+      </c>
+      <c r="H11">
+        <v>0.009383950185231565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04586246147897184</v>
+        <v>0.03681173874466848</v>
       </c>
       <c r="C12">
-        <v>0.007725796460237345</v>
+        <v>-0.01331920551943975</v>
       </c>
       <c r="D12">
-        <v>0.02318656667039164</v>
+        <v>-0.02680327131897157</v>
       </c>
       <c r="E12">
-        <v>-0.03462459174004111</v>
+        <v>0.006817952325707608</v>
       </c>
       <c r="F12">
-        <v>0.02062780624699861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02689770410438976</v>
+      </c>
+      <c r="G12">
+        <v>0.01449966017719923</v>
+      </c>
+      <c r="H12">
+        <v>0.007887658330921551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.04826442850048917</v>
+        <v>0.03612976551656329</v>
       </c>
       <c r="C13">
-        <v>0.02135804473655229</v>
+        <v>0.006534286159058473</v>
       </c>
       <c r="D13">
-        <v>0.0463915882159983</v>
+        <v>-0.01322545315635862</v>
       </c>
       <c r="E13">
-        <v>-0.004798655707480778</v>
+        <v>-0.01734507656361495</v>
       </c>
       <c r="F13">
-        <v>0.1094490757247989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.02438087009610606</v>
+      </c>
+      <c r="G13">
+        <v>0.08740953398539156</v>
+      </c>
+      <c r="H13">
+        <v>0.03569869143021763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0229264872565848</v>
+        <v>0.02008069582556374</v>
       </c>
       <c r="C14">
-        <v>0.01951371533733295</v>
+        <v>-0.00358418400600126</v>
       </c>
       <c r="D14">
-        <v>0.0304628312751726</v>
+        <v>-0.005979888167725718</v>
       </c>
       <c r="E14">
-        <v>-0.03359717254965353</v>
+        <v>0.006498860063582921</v>
       </c>
       <c r="F14">
-        <v>0.05229407371882588</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03057423607697378</v>
+      </c>
+      <c r="G14">
+        <v>0.04332447429035632</v>
+      </c>
+      <c r="H14">
+        <v>0.06375673787210857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03756862807559642</v>
+        <v>0.03030897966417692</v>
       </c>
       <c r="C16">
-        <v>0.007151736650134163</v>
+        <v>-0.01508485799788283</v>
       </c>
       <c r="D16">
-        <v>0.02481796956266715</v>
+        <v>-0.02697325113029462</v>
       </c>
       <c r="E16">
-        <v>-0.01714253131257466</v>
+        <v>0.0006743234110176105</v>
       </c>
       <c r="F16">
-        <v>0.02995468381005318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.02406061848216574</v>
+      </c>
+      <c r="G16">
+        <v>0.03346417385632526</v>
+      </c>
+      <c r="H16">
+        <v>0.01034948488476336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.05704155810118179</v>
+        <v>0.04107049209103035</v>
       </c>
       <c r="C19">
-        <v>0.0004486817725372794</v>
+        <v>-0.007015077979851918</v>
       </c>
       <c r="D19">
-        <v>0.04114326270307107</v>
+        <v>-0.02648195989750831</v>
       </c>
       <c r="E19">
-        <v>-0.01837890097955099</v>
+        <v>-0.004248896199367951</v>
       </c>
       <c r="F19">
-        <v>0.09392722430101923</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.03259443137371568</v>
+      </c>
+      <c r="G19">
+        <v>0.08932898503972744</v>
+      </c>
+      <c r="H19">
+        <v>0.04330045204589809</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.01639017287940668</v>
+        <v>0.01147752704006263</v>
       </c>
       <c r="C20">
-        <v>0.0135297445086769</v>
+        <v>0.004409267018666455</v>
       </c>
       <c r="D20">
-        <v>0.03791215729541469</v>
+        <v>-0.01381083686106174</v>
       </c>
       <c r="E20">
-        <v>-0.04263800298331488</v>
+        <v>0.004176568232119264</v>
       </c>
       <c r="F20">
-        <v>0.05686437921127436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02515926438237092</v>
+      </c>
+      <c r="G20">
+        <v>0.05281869500239812</v>
+      </c>
+      <c r="H20">
+        <v>0.05916077464488002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01464006702522361</v>
+        <v>0.02566382767739228</v>
       </c>
       <c r="C21">
-        <v>-0.003476322975242701</v>
+        <v>0.002960408454367094</v>
       </c>
       <c r="D21">
-        <v>0.03087987371937287</v>
+        <v>-0.01155085536964933</v>
       </c>
       <c r="E21">
-        <v>-0.02252154832112303</v>
+        <v>0.01139636086985109</v>
       </c>
       <c r="F21">
-        <v>0.09854450034329737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.01081878441131451</v>
+      </c>
+      <c r="G21">
+        <v>0.07277036617716701</v>
+      </c>
+      <c r="H21">
+        <v>0.02789127630285519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03466086970737476</v>
+        <v>0.02790050968229515</v>
       </c>
       <c r="C24">
-        <v>0.005714414680564953</v>
+        <v>-0.009459940402428108</v>
       </c>
       <c r="D24">
-        <v>0.02096323664682648</v>
+        <v>-0.02406914020233833</v>
       </c>
       <c r="E24">
-        <v>-0.01882484467539966</v>
+        <v>0.001573883911603881</v>
       </c>
       <c r="F24">
-        <v>0.03870438348541183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.02263111679628214</v>
+      </c>
+      <c r="G24">
+        <v>0.03625029899658638</v>
+      </c>
+      <c r="H24">
+        <v>0.005267601355538832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04055253157046038</v>
+        <v>0.03994801636126855</v>
       </c>
       <c r="C25">
-        <v>0.005172259315186831</v>
+        <v>-0.008846763187813512</v>
       </c>
       <c r="D25">
-        <v>0.02411425190856236</v>
+        <v>-0.02513417744224384</v>
       </c>
       <c r="E25">
-        <v>-0.02599219694191796</v>
+        <v>0.001445245105805742</v>
       </c>
       <c r="F25">
-        <v>0.04421080051472973</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.02495152202309431</v>
+      </c>
+      <c r="G25">
+        <v>0.043494509065904</v>
+      </c>
+      <c r="H25">
+        <v>0.004331638868315457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01954703208512611</v>
+        <v>0.01972689866086763</v>
       </c>
       <c r="C26">
-        <v>-0.003324479114010226</v>
+        <v>0.01601938085161564</v>
       </c>
       <c r="D26">
-        <v>0.0467953148558589</v>
+        <v>-0.01634421949490218</v>
       </c>
       <c r="E26">
-        <v>-0.01445708890813892</v>
+        <v>-0.004518725785283362</v>
       </c>
       <c r="F26">
-        <v>0.05073471894133613</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.008982729582747963</v>
+      </c>
+      <c r="G26">
+        <v>0.04679185226224326</v>
+      </c>
+      <c r="H26">
+        <v>0.04404726764264078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.09990937713327286</v>
+        <v>0.04816771128101578</v>
       </c>
       <c r="C27">
-        <v>0.04816741456020681</v>
+        <v>-0.02291761218223102</v>
       </c>
       <c r="D27">
-        <v>0.02162102825619173</v>
+        <v>-0.005012368681592469</v>
       </c>
       <c r="E27">
-        <v>-0.0391812663654131</v>
+        <v>0.0001756637455288622</v>
       </c>
       <c r="F27">
-        <v>0.06331432897346317</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.02974592011721716</v>
+      </c>
+      <c r="G27">
+        <v>0.04453081027457041</v>
+      </c>
+      <c r="H27">
+        <v>0.03179009904737439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05026565487676946</v>
+        <v>0.08587816355247686</v>
       </c>
       <c r="C28">
-        <v>0.08075403502887715</v>
+        <v>-0.01276855834296765</v>
       </c>
       <c r="D28">
-        <v>-0.1681165249493121</v>
+        <v>0.2292175434634289</v>
       </c>
       <c r="E28">
-        <v>0.1576263119351372</v>
+        <v>-0.02736312816571435</v>
       </c>
       <c r="F28">
-        <v>0.05983188558224032</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.116470161539786</v>
+      </c>
+      <c r="G28">
+        <v>0.01909921033122134</v>
+      </c>
+      <c r="H28">
+        <v>0.05640881435845034</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02275744847291527</v>
+        <v>0.02084669885387902</v>
       </c>
       <c r="C29">
-        <v>0.0171518371938849</v>
+        <v>-0.004263633779923641</v>
       </c>
       <c r="D29">
-        <v>0.02429308391727977</v>
+        <v>-0.004532009229117543</v>
       </c>
       <c r="E29">
-        <v>-0.03998693573628172</v>
+        <v>0.008131912682488439</v>
       </c>
       <c r="F29">
-        <v>0.03597755863386175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.0312751751931661</v>
+      </c>
+      <c r="G29">
+        <v>0.03588571376113234</v>
+      </c>
+      <c r="H29">
+        <v>0.06225305691942765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1034748125686654</v>
+        <v>0.07759385273494654</v>
       </c>
       <c r="C30">
-        <v>0.04787716918011976</v>
+        <v>-0.01304996279829232</v>
       </c>
       <c r="D30">
-        <v>0.06293039380616051</v>
+        <v>-0.04010758214817981</v>
       </c>
       <c r="E30">
-        <v>-0.03595987133698901</v>
+        <v>-0.04154340862895518</v>
       </c>
       <c r="F30">
-        <v>0.07514377720222712</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.06633390160875619</v>
+      </c>
+      <c r="G30">
+        <v>0.09026905469782588</v>
+      </c>
+      <c r="H30">
+        <v>0.0186854915283177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06104591857610432</v>
+        <v>0.0544578391912497</v>
       </c>
       <c r="C31">
-        <v>0.01609506042556914</v>
+        <v>-0.02053192298270403</v>
       </c>
       <c r="D31">
-        <v>0.03771479852667132</v>
+        <v>-0.01129760909901351</v>
       </c>
       <c r="E31">
-        <v>0.01392368894322698</v>
+        <v>-0.01021969766820108</v>
       </c>
       <c r="F31">
-        <v>0.02695811167382315</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01773527366165421</v>
+      </c>
+      <c r="G31">
+        <v>0.0152069500857674</v>
+      </c>
+      <c r="H31">
+        <v>0.06049317173929676</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.05519261031773703</v>
+        <v>0.0197981815249171</v>
       </c>
       <c r="C32">
-        <v>0.01192597020163376</v>
+        <v>-0.02048049676824534</v>
       </c>
       <c r="D32">
-        <v>0.04605396284898969</v>
+        <v>-0.02154909133027105</v>
       </c>
       <c r="E32">
-        <v>-0.06094887474475016</v>
+        <v>0.01629706304687327</v>
       </c>
       <c r="F32">
-        <v>0.08267487703839131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.05678869156429805</v>
+      </c>
+      <c r="G32">
+        <v>0.08088532354892243</v>
+      </c>
+      <c r="H32">
+        <v>0.008984563017963559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.06310600909366833</v>
+        <v>0.04558227211424999</v>
       </c>
       <c r="C33">
-        <v>5.127096589709982e-05</v>
+        <v>-0.008245595022119885</v>
       </c>
       <c r="D33">
-        <v>0.06372795582524192</v>
+        <v>-0.03948553144718074</v>
       </c>
       <c r="E33">
-        <v>-0.02324963893000169</v>
+        <v>-0.02088503668377411</v>
       </c>
       <c r="F33">
-        <v>0.08709034987105317</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01778096939312638</v>
+      </c>
+      <c r="G33">
+        <v>0.07756570767213232</v>
+      </c>
+      <c r="H33">
+        <v>0.04992670733506292</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03976232023008264</v>
+        <v>0.03146066477945045</v>
       </c>
       <c r="C34">
-        <v>0.01225811020962722</v>
+        <v>-0.02312812810996539</v>
       </c>
       <c r="D34">
-        <v>0.02701640328247524</v>
+        <v>-0.02560771176030888</v>
       </c>
       <c r="E34">
-        <v>-0.02526072003570958</v>
+        <v>0.00626697610117808</v>
       </c>
       <c r="F34">
-        <v>0.04080800131732579</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.02851369486673936</v>
+      </c>
+      <c r="G34">
+        <v>0.03687183502236855</v>
+      </c>
+      <c r="H34">
+        <v>0.008711793964651141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01807832229848619</v>
+        <v>0.02084676217327264</v>
       </c>
       <c r="C36">
-        <v>0.01185059503534908</v>
+        <v>0.002546877395003479</v>
       </c>
       <c r="D36">
-        <v>0.001893018958134914</v>
+        <v>0.002323937163558338</v>
       </c>
       <c r="E36">
-        <v>-0.009442982908503332</v>
+        <v>0.001526527302416861</v>
       </c>
       <c r="F36">
-        <v>0.03476407854850341</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.003482711248554179</v>
+      </c>
+      <c r="G36">
+        <v>0.0302539212044066</v>
+      </c>
+      <c r="H36">
+        <v>0.03820031733614383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.01080637678072219</v>
+        <v>0.01818724337211204</v>
       </c>
       <c r="C38">
-        <v>0.006797169940560461</v>
+        <v>-0.01692551811792928</v>
       </c>
       <c r="D38">
-        <v>-0.0167802392991543</v>
+        <v>0.0005299973322969798</v>
       </c>
       <c r="E38">
-        <v>-0.0001740442379970614</v>
+        <v>0.003260508690117778</v>
       </c>
       <c r="F38">
-        <v>0.03777291342623559</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.005031339372021902</v>
+      </c>
+      <c r="G38">
+        <v>0.04348137956668657</v>
+      </c>
+      <c r="H38">
+        <v>0.01697127529018311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0518850839881614</v>
+        <v>0.0369172031210523</v>
       </c>
       <c r="C39">
-        <v>0.01788644527367199</v>
+        <v>-0.01308766214256975</v>
       </c>
       <c r="D39">
-        <v>0.04346221436465721</v>
+        <v>-0.04363007401279759</v>
       </c>
       <c r="E39">
-        <v>-0.01794409434470493</v>
+        <v>-0.002664821888959273</v>
       </c>
       <c r="F39">
-        <v>0.03950797797258265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.04787633873414579</v>
+      </c>
+      <c r="G39">
+        <v>0.05439514330225299</v>
+      </c>
+      <c r="H39">
+        <v>-0.003238938822322716</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.05466900709658113</v>
+        <v>0.04257455796699199</v>
       </c>
       <c r="C40">
-        <v>0.03792009058818939</v>
+        <v>-0.01032017021159306</v>
       </c>
       <c r="D40">
-        <v>0.07312735563021357</v>
+        <v>-0.03110729085349366</v>
       </c>
       <c r="E40">
-        <v>-0.0154620586643127</v>
+        <v>-0.02186404960625124</v>
       </c>
       <c r="F40">
-        <v>0.08844025560653411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.0399577051377169</v>
+      </c>
+      <c r="G40">
+        <v>0.07067500072510861</v>
+      </c>
+      <c r="H40">
+        <v>0.03679299894271118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006698879389768753</v>
+        <v>0.004345537224324064</v>
       </c>
       <c r="C41">
-        <v>-0.003166006406049574</v>
+        <v>0.00244596157601017</v>
       </c>
       <c r="D41">
-        <v>0.01656476364144606</v>
+        <v>0.0007932701000990978</v>
       </c>
       <c r="E41">
-        <v>-0.01624832882997071</v>
+        <v>3.407397108254856e-05</v>
       </c>
       <c r="F41">
-        <v>0.0111365115929172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0004779753824788379</v>
+      </c>
+      <c r="G41">
+        <v>0.009198985101253745</v>
+      </c>
+      <c r="H41">
+        <v>0.04870012081772684</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3375069588820709</v>
+        <v>0.272295091429638</v>
       </c>
       <c r="C42">
-        <v>-0.8805436729512743</v>
+        <v>0.04840045530963321</v>
       </c>
       <c r="D42">
-        <v>-0.01822406156524918</v>
+        <v>-0.5387640749933506</v>
       </c>
       <c r="E42">
-        <v>0.2781327974827053</v>
+        <v>-0.04329056111693266</v>
       </c>
       <c r="F42">
-        <v>-0.05257715920845064</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.7777737251735496</v>
+      </c>
+      <c r="G42">
+        <v>-0.07732586095314016</v>
+      </c>
+      <c r="H42">
+        <v>-0.03470003020134273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01337577823810242</v>
+        <v>0.003750206716374486</v>
       </c>
       <c r="C43">
-        <v>0.0008608070265680459</v>
+        <v>0.004213582448373087</v>
       </c>
       <c r="D43">
-        <v>0.02264889934483933</v>
+        <v>-0.002454263196496188</v>
       </c>
       <c r="E43">
-        <v>-0.01373221789818103</v>
+        <v>-0.003959359798602948</v>
       </c>
       <c r="F43">
-        <v>0.03493949844553957</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.006054113152447043</v>
+      </c>
+      <c r="G43">
+        <v>0.01906960456933905</v>
+      </c>
+      <c r="H43">
+        <v>0.04731815664803057</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.03252190584690005</v>
+        <v>0.0162610238920359</v>
       </c>
       <c r="C44">
-        <v>0.003179743356239162</v>
+        <v>-0.003453423028345129</v>
       </c>
       <c r="D44">
-        <v>0.0521343068067839</v>
+        <v>-0.02162080969874116</v>
       </c>
       <c r="E44">
-        <v>-0.0384122488549715</v>
+        <v>0.002863682954921127</v>
       </c>
       <c r="F44">
-        <v>0.1658360719218323</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01381261681273885</v>
+      </c>
+      <c r="G44">
+        <v>0.1167424928829045</v>
+      </c>
+      <c r="H44">
+        <v>0.09027258589617364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02510123405803046</v>
+        <v>0.02205132563635212</v>
       </c>
       <c r="C46">
-        <v>0.01277748548289646</v>
+        <v>-0.001275802029537642</v>
       </c>
       <c r="D46">
-        <v>0.04446261588021507</v>
+        <v>-0.01689467447192735</v>
       </c>
       <c r="E46">
-        <v>-0.03340303133589395</v>
+        <v>-0.003517040312019152</v>
       </c>
       <c r="F46">
-        <v>0.03430028626339671</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.03800352540760157</v>
+      </c>
+      <c r="G46">
+        <v>0.04918802548446374</v>
+      </c>
+      <c r="H46">
+        <v>0.06334743059909359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09124465141750049</v>
+        <v>0.07695006946308953</v>
       </c>
       <c r="C47">
-        <v>0.0326253176629731</v>
+        <v>-0.03930489757762293</v>
       </c>
       <c r="D47">
-        <v>0.02831206067284294</v>
+        <v>-0.01546812260351469</v>
       </c>
       <c r="E47">
-        <v>-0.01451757668481914</v>
+        <v>-0.005500361540480899</v>
       </c>
       <c r="F47">
-        <v>-0.0007418791710938164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.03037999638443292</v>
+      </c>
+      <c r="G47">
+        <v>-0.01505569052163189</v>
+      </c>
+      <c r="H47">
+        <v>0.06886705160482377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0166314232222565</v>
+        <v>0.01972659723100286</v>
       </c>
       <c r="C48">
-        <v>0.006494013062239923</v>
+        <v>-0.007755781645775859</v>
       </c>
       <c r="D48">
-        <v>0.02546566297515849</v>
+        <v>-0.007867163219959658</v>
       </c>
       <c r="E48">
-        <v>-0.02303674702196441</v>
+        <v>-0.0009372663662575385</v>
       </c>
       <c r="F48">
-        <v>0.04606906554977526</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01097948133558066</v>
+      </c>
+      <c r="G48">
+        <v>0.03369803218846439</v>
+      </c>
+      <c r="H48">
+        <v>0.03329615618137765</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09586921022539402</v>
+        <v>0.07612760700671976</v>
       </c>
       <c r="C50">
-        <v>0.01239650646403121</v>
+        <v>-0.03535745678313926</v>
       </c>
       <c r="D50">
-        <v>0.03799211467120624</v>
+        <v>-0.02895059007597923</v>
       </c>
       <c r="E50">
-        <v>-0.003512140343115825</v>
+        <v>0.007485413174683225</v>
       </c>
       <c r="F50">
-        <v>0.005697852422864144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02171712805827121</v>
+      </c>
+      <c r="G50">
+        <v>0.01382807805681713</v>
+      </c>
+      <c r="H50">
+        <v>0.05611238748826056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04568721962305549</v>
+        <v>0.02613563124106276</v>
       </c>
       <c r="C51">
-        <v>0.001899628169039097</v>
+        <v>-0.002951933145840556</v>
       </c>
       <c r="D51">
-        <v>0.03030708116220627</v>
+        <v>0.001573435996697055</v>
       </c>
       <c r="E51">
-        <v>0.02823740452340112</v>
+        <v>-0.01284976328972549</v>
       </c>
       <c r="F51">
-        <v>0.1376236674177934</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.01469191163424509</v>
+      </c>
+      <c r="G51">
+        <v>0.09341432760782326</v>
+      </c>
+      <c r="H51">
+        <v>0.06860261822140386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1185713354629195</v>
+        <v>0.1053116375882654</v>
       </c>
       <c r="C53">
-        <v>0.02961139732895439</v>
+        <v>-0.05319752817221242</v>
       </c>
       <c r="D53">
-        <v>0.06108273689059452</v>
+        <v>-0.04320057822877278</v>
       </c>
       <c r="E53">
-        <v>-0.02508732027265467</v>
+        <v>-0.003586939735577699</v>
       </c>
       <c r="F53">
-        <v>-0.07442296578535508</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05951569812191029</v>
+      </c>
+      <c r="G53">
+        <v>-0.05876668286638671</v>
+      </c>
+      <c r="H53">
+        <v>0.03452789486020938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02248229792814114</v>
+        <v>0.02050835873090929</v>
       </c>
       <c r="C54">
-        <v>0.02725203829425079</v>
+        <v>-0.01356060005796174</v>
       </c>
       <c r="D54">
-        <v>0.01584769883501946</v>
+        <v>0.0122295451673377</v>
       </c>
       <c r="E54">
-        <v>-0.01958348833564483</v>
+        <v>0.002325380314857265</v>
       </c>
       <c r="F54">
-        <v>0.05277263403730494</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01879618982090405</v>
+      </c>
+      <c r="G54">
+        <v>0.04048816811995871</v>
+      </c>
+      <c r="H54">
+        <v>0.07098814757908505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1071577049281134</v>
+        <v>0.09006855414399566</v>
       </c>
       <c r="C55">
-        <v>0.02230704926637895</v>
+        <v>-0.04638753827754096</v>
       </c>
       <c r="D55">
-        <v>0.01366444478584061</v>
+        <v>-0.03752181399456207</v>
       </c>
       <c r="E55">
-        <v>-0.04220878436675873</v>
+        <v>0.01010489382454081</v>
       </c>
       <c r="F55">
-        <v>-0.06486328038047613</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04907459539120444</v>
+      </c>
+      <c r="G55">
+        <v>-0.04615230007477752</v>
+      </c>
+      <c r="H55">
+        <v>0.04409965752500051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1446387107345423</v>
+        <v>0.1356430325013237</v>
       </c>
       <c r="C56">
-        <v>0.0701079920449455</v>
+        <v>-0.07534585200715409</v>
       </c>
       <c r="D56">
-        <v>0.0390482821407531</v>
+        <v>-0.03609311819884396</v>
       </c>
       <c r="E56">
-        <v>-0.04461594722984912</v>
+        <v>0.001066906726042449</v>
       </c>
       <c r="F56">
-        <v>-0.1437741342493639</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.08348384036357066</v>
+      </c>
+      <c r="G56">
+        <v>-0.1046197419712473</v>
+      </c>
+      <c r="H56">
+        <v>0.000329557039958701</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.06259658299883522</v>
+        <v>0.05319457637840043</v>
       </c>
       <c r="C57">
-        <v>0.01859195867277889</v>
+        <v>0.0003184647076725376</v>
       </c>
       <c r="D57">
-        <v>0.045350058193023</v>
+        <v>-0.02027299865300951</v>
       </c>
       <c r="E57">
-        <v>-0.002505302852724841</v>
+        <v>-0.01451067323458522</v>
       </c>
       <c r="F57">
-        <v>0.08024121910267042</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02383514681378298</v>
+      </c>
+      <c r="G57">
+        <v>0.06516876150059557</v>
+      </c>
+      <c r="H57">
+        <v>0.01972755143865059</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2299606452807806</v>
+        <v>0.1713763690270189</v>
       </c>
       <c r="C58">
-        <v>0.05398490392808768</v>
+        <v>-0.06710505001313445</v>
       </c>
       <c r="D58">
-        <v>0.1169828751319604</v>
+        <v>-0.07008943108221649</v>
       </c>
       <c r="E58">
-        <v>-0.02753451785504408</v>
+        <v>-0.1094891778494702</v>
       </c>
       <c r="F58">
-        <v>0.1897308022428226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.0279919466743419</v>
+      </c>
+      <c r="G58">
+        <v>0.4166776190400611</v>
+      </c>
+      <c r="H58">
+        <v>0.3315605169471185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05532512959658047</v>
+        <v>0.08872662318702791</v>
       </c>
       <c r="C59">
-        <v>0.1055800692002175</v>
+        <v>-0.02196979102672289</v>
       </c>
       <c r="D59">
-        <v>-0.1244235228644956</v>
+        <v>0.204470689123517</v>
       </c>
       <c r="E59">
-        <v>0.1127641666441265</v>
+        <v>-0.04092505230303286</v>
       </c>
       <c r="F59">
-        <v>0.03982949818818018</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.08065749210393516</v>
+      </c>
+      <c r="G59">
+        <v>0.04186443247990021</v>
+      </c>
+      <c r="H59">
+        <v>0.01229055587340041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1798722579970409</v>
+        <v>0.1808368212790695</v>
       </c>
       <c r="C60">
-        <v>0.0771356818020838</v>
+        <v>-0.05993701288526562</v>
       </c>
       <c r="D60">
-        <v>0.01024710298598156</v>
+        <v>0.0439271165364621</v>
       </c>
       <c r="E60">
-        <v>0.07819879104760812</v>
+        <v>-0.0676174225147103</v>
       </c>
       <c r="F60">
-        <v>0.1328282582108064</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.04635577071054269</v>
+      </c>
+      <c r="G60">
+        <v>0.1989279858501617</v>
+      </c>
+      <c r="H60">
+        <v>-0.3729366560248496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03252904260216919</v>
+        <v>0.03092648645788682</v>
       </c>
       <c r="C61">
-        <v>0.009421117196412226</v>
+        <v>-0.01392623748978115</v>
       </c>
       <c r="D61">
-        <v>0.01800681825291682</v>
+        <v>-0.02890693059336601</v>
       </c>
       <c r="E61">
-        <v>-0.01830600311750466</v>
+        <v>0.002249127226316829</v>
       </c>
       <c r="F61">
-        <v>0.03630440034185307</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03307519807173327</v>
+      </c>
+      <c r="G61">
+        <v>0.04023055739887184</v>
+      </c>
+      <c r="H61">
+        <v>-0.01075738621819795</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02717097893516214</v>
+        <v>0.02133325662414091</v>
       </c>
       <c r="C63">
-        <v>0.02152286733844165</v>
+        <v>-0.003916091304037552</v>
       </c>
       <c r="D63">
-        <v>0.03986102003510456</v>
+        <v>-0.01564063005498201</v>
       </c>
       <c r="E63">
-        <v>-0.03141187984161366</v>
+        <v>-0.0003009153286613138</v>
       </c>
       <c r="F63">
-        <v>0.03547092738446173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.0281398781395243</v>
+      </c>
+      <c r="G63">
+        <v>0.03079138835983872</v>
+      </c>
+      <c r="H63">
+        <v>0.05528355096929746</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05373455079501374</v>
+        <v>0.04803402483686122</v>
       </c>
       <c r="C64">
-        <v>0.008927047017971675</v>
+        <v>-0.0191366924200926</v>
       </c>
       <c r="D64">
-        <v>0.03481667215492176</v>
+        <v>-0.03619718237308708</v>
       </c>
       <c r="E64">
-        <v>-0.06488404426200366</v>
+        <v>0.01075401671584998</v>
       </c>
       <c r="F64">
-        <v>0.05121855827465104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03451698001700915</v>
+      </c>
+      <c r="G64">
+        <v>0.03604639247091315</v>
+      </c>
+      <c r="H64">
+        <v>0.03451095222988955</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.007641986928904857</v>
+        <v>0.03830146632291769</v>
       </c>
       <c r="C65">
-        <v>0.002613723741663767</v>
+        <v>-0.002382678032730697</v>
       </c>
       <c r="D65">
-        <v>0.00269708698171038</v>
+        <v>-0.01683826002996266</v>
       </c>
       <c r="E65">
-        <v>0.006573215481512655</v>
+        <v>0.003580590640697005</v>
       </c>
       <c r="F65">
-        <v>0.0003883825836827496</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02892292955073459</v>
+      </c>
+      <c r="G65">
+        <v>0.005636661438445475</v>
+      </c>
+      <c r="H65">
+        <v>-0.03708805737457232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.05702213671569543</v>
+        <v>0.04732488493606408</v>
       </c>
       <c r="C66">
-        <v>0.02724161031194956</v>
+        <v>-0.02094640893255743</v>
       </c>
       <c r="D66">
-        <v>0.05162934449532788</v>
+        <v>-0.04799036938072002</v>
       </c>
       <c r="E66">
-        <v>-0.03397371403844418</v>
+        <v>-0.0108422311361915</v>
       </c>
       <c r="F66">
-        <v>0.0623796714524454</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.06960280914762307</v>
+      </c>
+      <c r="G66">
+        <v>0.06062020320049292</v>
+      </c>
+      <c r="H66">
+        <v>-0.01489307532027618</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02730207236689781</v>
+        <v>0.03588319118040791</v>
       </c>
       <c r="C67">
-        <v>0.01652283723349351</v>
+        <v>-0.02070663847250077</v>
       </c>
       <c r="D67">
-        <v>-0.02743113443034483</v>
+        <v>0.01186788971722768</v>
       </c>
       <c r="E67">
-        <v>0.0159324241531864</v>
+        <v>-0.002123111103459691</v>
       </c>
       <c r="F67">
-        <v>0.04400646901450204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.004563178822484325</v>
+      </c>
+      <c r="G67">
+        <v>0.03560389375697127</v>
+      </c>
+      <c r="H67">
+        <v>0.0001345516455602795</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0626495524041393</v>
+        <v>0.09349826962717497</v>
       </c>
       <c r="C68">
-        <v>0.0915708663826261</v>
+        <v>-0.0007816011438235876</v>
       </c>
       <c r="D68">
-        <v>-0.1747913837121917</v>
+        <v>0.2178422938720619</v>
       </c>
       <c r="E68">
-        <v>0.1560558285565356</v>
+        <v>-0.03707729452521545</v>
       </c>
       <c r="F68">
-        <v>-0.003520507903740537</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.1125054447232221</v>
+      </c>
+      <c r="G68">
+        <v>-0.00142536396305125</v>
+      </c>
+      <c r="H68">
+        <v>0.04252920835586152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07168542609024765</v>
+        <v>0.0631840319561694</v>
       </c>
       <c r="C69">
-        <v>0.03427062602313389</v>
+        <v>-0.03639233557588407</v>
       </c>
       <c r="D69">
-        <v>0.01403800930390244</v>
+        <v>-0.00983091211384533</v>
       </c>
       <c r="E69">
-        <v>0.01309789690310068</v>
+        <v>-0.008347164592791615</v>
       </c>
       <c r="F69">
-        <v>0.006507702327481218</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02328279403077453</v>
+      </c>
+      <c r="G69">
+        <v>-0.0007104359167475669</v>
+      </c>
+      <c r="H69">
+        <v>0.04363854555372113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06253969931959436</v>
+        <v>0.08941412452989876</v>
       </c>
       <c r="C71">
-        <v>0.1090879582417754</v>
+        <v>-0.008875634874034354</v>
       </c>
       <c r="D71">
-        <v>-0.2107877274432978</v>
+        <v>0.2305819877471727</v>
       </c>
       <c r="E71">
-        <v>0.2407452207742204</v>
+        <v>-0.04429909230394919</v>
       </c>
       <c r="F71">
-        <v>0.06370804638669153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.1315796538943819</v>
+      </c>
+      <c r="G71">
+        <v>0.01832827058924004</v>
+      </c>
+      <c r="H71">
+        <v>0.01548162585262996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1236009303338409</v>
+        <v>0.1103383792760459</v>
       </c>
       <c r="C72">
-        <v>0.1021348660721038</v>
+        <v>-0.06459733674963308</v>
       </c>
       <c r="D72">
-        <v>0.03285863179752133</v>
+        <v>-0.02311304963044598</v>
       </c>
       <c r="E72">
-        <v>-0.03892403243279662</v>
+        <v>-0.01592004804682903</v>
       </c>
       <c r="F72">
-        <v>0.03980924213259582</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1129680117650307</v>
+      </c>
+      <c r="G72">
+        <v>0.1150559185479375</v>
+      </c>
+      <c r="H72">
+        <v>-0.1016428920268345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2604688031559717</v>
+        <v>0.2547850914637482</v>
       </c>
       <c r="C73">
-        <v>0.1060508456561193</v>
+        <v>-0.0793977754724807</v>
       </c>
       <c r="D73">
-        <v>-0.0223678835970479</v>
+        <v>0.02495631749442943</v>
       </c>
       <c r="E73">
-        <v>0.1157917421247277</v>
+        <v>-0.10152846555409</v>
       </c>
       <c r="F73">
-        <v>0.2379492435821013</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.04028233207978529</v>
+      </c>
+      <c r="G73">
+        <v>0.2682981622519465</v>
+      </c>
+      <c r="H73">
+        <v>-0.5338986094799153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.130732627863409</v>
+        <v>0.123110060918963</v>
       </c>
       <c r="C74">
-        <v>0.0285443640272</v>
+        <v>-0.06737448188876684</v>
       </c>
       <c r="D74">
-        <v>0.03337321634938247</v>
+        <v>-0.04172383817354965</v>
       </c>
       <c r="E74">
-        <v>-0.0180441794794864</v>
+        <v>-0.006296775102613803</v>
       </c>
       <c r="F74">
-        <v>-0.1189662547614992</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06439301937015737</v>
+      </c>
+      <c r="G74">
+        <v>-0.08771875881524784</v>
+      </c>
+      <c r="H74">
+        <v>-0.01192065294607946</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2288164982575752</v>
+        <v>0.2349815752742614</v>
       </c>
       <c r="C75">
-        <v>0.09812867851376329</v>
+        <v>-0.1311445465683413</v>
       </c>
       <c r="D75">
-        <v>0.07152107495901368</v>
+        <v>-0.04330884152029973</v>
       </c>
       <c r="E75">
-        <v>-0.02017863513100869</v>
+        <v>-0.02901707612003517</v>
       </c>
       <c r="F75">
-        <v>-0.1788940999137702</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1310049894224541</v>
+      </c>
+      <c r="G75">
+        <v>-0.179588193583841</v>
+      </c>
+      <c r="H75">
+        <v>0.02015157277951821</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2452727388566138</v>
+        <v>0.2219840509904832</v>
       </c>
       <c r="C76">
-        <v>0.1149426615751449</v>
+        <v>-0.1274578419360034</v>
       </c>
       <c r="D76">
-        <v>0.01258285959503412</v>
+        <v>-0.03211699934993534</v>
       </c>
       <c r="E76">
-        <v>-0.05829808234143505</v>
+        <v>0.01296669490146237</v>
       </c>
       <c r="F76">
-        <v>-0.2130389236716372</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1349541028064208</v>
+      </c>
+      <c r="G76">
+        <v>-0.1996468137692673</v>
+      </c>
+      <c r="H76">
+        <v>0.03592195941421547</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1572484555459618</v>
+        <v>0.09771925375068129</v>
       </c>
       <c r="C77">
-        <v>-0.02048590837510079</v>
+        <v>-0.02794302625684566</v>
       </c>
       <c r="D77">
-        <v>0.07853187052501258</v>
+        <v>-0.07161878810401577</v>
       </c>
       <c r="E77">
-        <v>-0.01929582609268796</v>
+        <v>-0.0107943571647131</v>
       </c>
       <c r="F77">
-        <v>0.2027499365944019</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.001899466655640674</v>
+      </c>
+      <c r="G77">
+        <v>0.1439208324078795</v>
+      </c>
+      <c r="H77">
+        <v>0.2066175552603096</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.0743040096261836</v>
+        <v>0.05043917665920889</v>
       </c>
       <c r="C78">
-        <v>-0.001818444738152674</v>
+        <v>-0.02160952417923495</v>
       </c>
       <c r="D78">
-        <v>0.07385461603886104</v>
+        <v>-0.05167955901211025</v>
       </c>
       <c r="E78">
-        <v>-0.0675844742937025</v>
+        <v>0.004579420537064292</v>
       </c>
       <c r="F78">
-        <v>0.05422283650898636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.05086117736007665</v>
+      </c>
+      <c r="G78">
+        <v>0.07455954157418677</v>
+      </c>
+      <c r="H78">
+        <v>0.03020015623290629</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1586428348059248</v>
+        <v>0.1699417702261884</v>
       </c>
       <c r="C80">
-        <v>-0.1543961232352641</v>
+        <v>-0.06166277334591237</v>
       </c>
       <c r="D80">
-        <v>-0.6728136934415494</v>
+        <v>0.08400289793671399</v>
       </c>
       <c r="E80">
-        <v>-0.6828340312947552</v>
+        <v>0.962775699571037</v>
       </c>
       <c r="F80">
-        <v>0.08407704771215944</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.07293713573308926</v>
+      </c>
+      <c r="G80">
+        <v>0.09545613226247643</v>
+      </c>
+      <c r="H80">
+        <v>-0.03284075007358598</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1602982912088825</v>
+        <v>0.1610957749202382</v>
       </c>
       <c r="C81">
-        <v>0.08388272119087352</v>
+        <v>-0.09008192216659686</v>
       </c>
       <c r="D81">
-        <v>0.04818202700666552</v>
+        <v>-0.03236854984105373</v>
       </c>
       <c r="E81">
-        <v>-0.04450946324607957</v>
+        <v>-0.004479094309514813</v>
       </c>
       <c r="F81">
-        <v>-0.2017842810140607</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1012003022894165</v>
+      </c>
+      <c r="G81">
+        <v>-0.1348098872711173</v>
+      </c>
+      <c r="H81">
+        <v>0.03676224750968626</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05573776283993898</v>
+        <v>0.0433797101178718</v>
       </c>
       <c r="C83">
-        <v>-0.02077666378903135</v>
+        <v>-0.01418002181569982</v>
       </c>
       <c r="D83">
-        <v>0.05647983164750744</v>
+        <v>-0.02733801571099469</v>
       </c>
       <c r="E83">
-        <v>-0.01834060916715043</v>
+        <v>-0.01149018066364228</v>
       </c>
       <c r="F83">
-        <v>0.06542931993375761</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.0135678919022156</v>
+      </c>
+      <c r="G83">
+        <v>0.05779410981038068</v>
+      </c>
+      <c r="H83">
+        <v>0.03717633428417829</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2195335579257938</v>
+        <v>0.2189720321048903</v>
       </c>
       <c r="C85">
-        <v>0.06335381072632333</v>
+        <v>-0.1116080663052642</v>
       </c>
       <c r="D85">
-        <v>0.05627003967077528</v>
+        <v>-0.07527444787638471</v>
       </c>
       <c r="E85">
-        <v>-0.06047831671203319</v>
+        <v>-0.01223795384760771</v>
       </c>
       <c r="F85">
-        <v>-0.236202410796719</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1274936417589315</v>
+      </c>
+      <c r="G85">
+        <v>-0.1924130880849076</v>
+      </c>
+      <c r="H85">
+        <v>0.02913269367171188</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02277429297999467</v>
+        <v>0.01286602847716729</v>
       </c>
       <c r="C86">
-        <v>-0.01329256189500242</v>
+        <v>-0.0001199278444378709</v>
       </c>
       <c r="D86">
-        <v>0.04646712532089081</v>
+        <v>-0.02888761063690904</v>
       </c>
       <c r="E86">
-        <v>-0.05285409461934871</v>
+        <v>-0.003947921786702806</v>
       </c>
       <c r="F86">
-        <v>0.09993936555441167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.01588335504659336</v>
+      </c>
+      <c r="G86">
+        <v>0.09655310167963249</v>
+      </c>
+      <c r="H86">
+        <v>0.0597114243225346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.01444408007720379</v>
+        <v>0.02357124054746501</v>
       </c>
       <c r="C87">
-        <v>0.03239007375430639</v>
+        <v>-0.002602786309694605</v>
       </c>
       <c r="D87">
-        <v>-0.03776365592566577</v>
+        <v>0.01132222247919962</v>
       </c>
       <c r="E87">
-        <v>0.03176324811187334</v>
+        <v>-0.001420014577312467</v>
       </c>
       <c r="F87">
-        <v>0.08771070582611976</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.003604338009918177</v>
+      </c>
+      <c r="G87">
+        <v>0.09618587838328786</v>
+      </c>
+      <c r="H87">
+        <v>-0.001674730343236511</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01128508339265949</v>
+        <v>0.03609540555594246</v>
       </c>
       <c r="C88">
-        <v>0.01709817399307498</v>
+        <v>0.008413838500596807</v>
       </c>
       <c r="D88">
-        <v>-0.008477152197191758</v>
+        <v>0.007089980111511605</v>
       </c>
       <c r="E88">
-        <v>-0.01835934483015181</v>
+        <v>0.004867494071325494</v>
       </c>
       <c r="F88">
-        <v>0.02604315833167265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01077284436277015</v>
+      </c>
+      <c r="G88">
+        <v>0.004144259930670933</v>
+      </c>
+      <c r="H88">
+        <v>0.02636646148015613</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.0812309422409245</v>
+        <v>0.1421730116662259</v>
       </c>
       <c r="C89">
-        <v>0.1080840569705079</v>
+        <v>-0.01249681469221932</v>
       </c>
       <c r="D89">
-        <v>-0.2109139846719711</v>
+        <v>0.3480879817422399</v>
       </c>
       <c r="E89">
-        <v>0.2451518630845622</v>
+        <v>-0.08482639386898094</v>
       </c>
       <c r="F89">
-        <v>0.06298550178374614</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.1673129546297404</v>
+      </c>
+      <c r="G89">
+        <v>0.003519871191513106</v>
+      </c>
+      <c r="H89">
+        <v>0.0964550393219651</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07937522483499335</v>
+        <v>0.1072737974154416</v>
       </c>
       <c r="C90">
-        <v>0.1102102387886671</v>
+        <v>-0.006895398537315815</v>
       </c>
       <c r="D90">
-        <v>-0.2451380867252158</v>
+        <v>0.2957697945822612</v>
       </c>
       <c r="E90">
-        <v>0.1953651775537205</v>
+        <v>-0.05327766524617012</v>
       </c>
       <c r="F90">
-        <v>0.02265325966047111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.1546032226646551</v>
+      </c>
+      <c r="G90">
+        <v>-0.03195963776901172</v>
+      </c>
+      <c r="H90">
+        <v>0.05732301254942038</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2860378707022369</v>
+        <v>0.2535475488061039</v>
       </c>
       <c r="C91">
-        <v>0.08045616996847146</v>
+        <v>-0.139363059205653</v>
       </c>
       <c r="D91">
-        <v>0.08182873553798954</v>
+        <v>-0.0773030635984089</v>
       </c>
       <c r="E91">
-        <v>-0.05379660665668107</v>
+        <v>-0.01920523483740639</v>
       </c>
       <c r="F91">
-        <v>-0.3074035671299247</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.13442714159728</v>
+      </c>
+      <c r="G91">
+        <v>-0.2503027837046369</v>
+      </c>
+      <c r="H91">
+        <v>0.05667505950557887</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1176861768010813</v>
+        <v>0.1748702807388343</v>
       </c>
       <c r="C92">
-        <v>0.09384027832814673</v>
+        <v>-0.08195849161047047</v>
       </c>
       <c r="D92">
-        <v>-0.2628148186858684</v>
+        <v>0.3009483864833327</v>
       </c>
       <c r="E92">
-        <v>0.2021834488563197</v>
+        <v>-0.03882668074701082</v>
       </c>
       <c r="F92">
-        <v>0.009613743900676748</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.1569168876384435</v>
+      </c>
+      <c r="G92">
+        <v>-0.09331612143922267</v>
+      </c>
+      <c r="H92">
+        <v>0.163676183523215</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.07553031229853101</v>
+        <v>0.1277493244473988</v>
       </c>
       <c r="C93">
-        <v>0.09845906842819524</v>
+        <v>-0.01606780987757185</v>
       </c>
       <c r="D93">
-        <v>-0.2970539311140717</v>
+        <v>0.3374059804392657</v>
       </c>
       <c r="E93">
-        <v>0.2625704282782688</v>
+        <v>-0.07117153356473473</v>
       </c>
       <c r="F93">
-        <v>0.0008313536580756267</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.2082710541822657</v>
+      </c>
+      <c r="G93">
+        <v>-0.04212656792235794</v>
+      </c>
+      <c r="H93">
+        <v>-0.0160224723217815</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2427040465053141</v>
+        <v>0.2620214905902447</v>
       </c>
       <c r="C94">
-        <v>0.1058389366714966</v>
+        <v>-0.1220862050296602</v>
       </c>
       <c r="D94">
-        <v>0.004536988530100033</v>
+        <v>-0.0248676769836426</v>
       </c>
       <c r="E94">
-        <v>-0.02656194985518169</v>
+        <v>-0.03753084240279874</v>
       </c>
       <c r="F94">
-        <v>-0.3360682626334754</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.1262273392150016</v>
+      </c>
+      <c r="G94">
+        <v>-0.2804311813351685</v>
+      </c>
+      <c r="H94">
+        <v>0.04354649450959656</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1421109926984265</v>
+        <v>0.0989865931495944</v>
       </c>
       <c r="C95">
-        <v>0.001075567699235344</v>
+        <v>-0.05627906731383307</v>
       </c>
       <c r="D95">
-        <v>0.1305835916525417</v>
+        <v>-0.06135178193356172</v>
       </c>
       <c r="E95">
-        <v>-0.03640999398720855</v>
+        <v>-0.0779036204479176</v>
       </c>
       <c r="F95">
-        <v>0.103416479473955</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02504251682009562</v>
+      </c>
+      <c r="G95">
+        <v>0.09430789421816628</v>
+      </c>
+      <c r="H95">
+        <v>0.1326890438463423</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1977826758151349</v>
+        <v>0.1802424954240225</v>
       </c>
       <c r="C98">
-        <v>0.06232790606352717</v>
+        <v>-0.08833780788692368</v>
       </c>
       <c r="D98">
-        <v>-0.01662687317411327</v>
+        <v>0.03242024265417981</v>
       </c>
       <c r="E98">
-        <v>0.1041420666976346</v>
+        <v>-0.06855531144288597</v>
       </c>
       <c r="F98">
-        <v>0.1035645814247727</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01214494115431411</v>
+      </c>
+      <c r="G98">
+        <v>0.2022930778519324</v>
+      </c>
+      <c r="H98">
+        <v>-0.3884307638156894</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002517240682381515</v>
+        <v>0.01400145754088749</v>
       </c>
       <c r="C101">
-        <v>0.023386382395019</v>
+        <v>-0.00167308207452136</v>
       </c>
       <c r="D101">
-        <v>0.04022400076970289</v>
+        <v>-0.007899072591241858</v>
       </c>
       <c r="E101">
-        <v>-0.05726936577006358</v>
+        <v>0.003798451974483608</v>
       </c>
       <c r="F101">
-        <v>0.06261758167867219</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03919835846927851</v>
+      </c>
+      <c r="G101">
+        <v>0.07999349340243163</v>
+      </c>
+      <c r="H101">
+        <v>0.1130120528647089</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.09646973527499429</v>
+        <v>0.115539431136173</v>
       </c>
       <c r="C102">
-        <v>0.02643771779419837</v>
+        <v>-0.05107110085519796</v>
       </c>
       <c r="D102">
-        <v>0.03977891173709893</v>
+        <v>-0.03411951549131537</v>
       </c>
       <c r="E102">
-        <v>-0.04967809928780916</v>
+        <v>-0.0005643748946644668</v>
       </c>
       <c r="F102">
-        <v>-0.1196417545307615</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06753203963374339</v>
+      </c>
+      <c r="G102">
+        <v>-0.1187103211568984</v>
+      </c>
+      <c r="H102">
+        <v>0.01636631229118461</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02593331121589863</v>
+        <v>0.02475000382060292</v>
       </c>
       <c r="C103">
-        <v>0.005889424409066246</v>
+        <v>-0.01176321220357464</v>
       </c>
       <c r="D103">
-        <v>0.004718818795932506</v>
+        <v>-0.008070283175379542</v>
       </c>
       <c r="E103">
-        <v>-0.0002452743497924069</v>
+        <v>0.00702872116582514</v>
       </c>
       <c r="F103">
-        <v>-0.03807987917440268</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01338227517572923</v>
+      </c>
+      <c r="G103">
+        <v>-0.01424166152008684</v>
+      </c>
+      <c r="H103">
+        <v>0.01720783869032104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3517975699179057</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9146780957649413</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.01811865462881787</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.0114515657290068</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1664751249706345</v>
+      </c>
+      <c r="G104">
+        <v>-0.05059530749897866</v>
+      </c>
+      <c r="H104">
+        <v>0.002167110111423622</v>
       </c>
     </row>
   </sheetData>
